--- a/biology/Botanique/Georges_Rozet/Georges_Rozet.xlsx
+++ b/biology/Botanique/Georges_Rozet/Georges_Rozet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georges Rozet (Cluny, 26 août 1871 - Mâcon, 29 décembre 1962[1]), ancien élève de l'École normale supérieure (Lettres), est un journaliste et écrivain français. Il est l'auteur d'ouvrages sur le vin et l'œnologie, sur diverses régions touristiques de France et du Maghreb ainsi que sur l'histoire locale de Mâcon.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georges Rozet (Cluny, 26 août 1871 - Mâcon, 29 décembre 1962), ancien élève de l'École normale supérieure (Lettres), est un journaliste et écrivain français. Il est l'auteur d'ouvrages sur le vin et l'œnologie, sur diverses régions touristiques de France et du Maghreb ainsi que sur l'histoire locale de Mâcon.
 Une rue porte son nom à Mâcon; la plaque le qualifie d' "Historiographe de la Bourgogne et de Mâcon". 
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>" Publications du Centenaire de l'Algérie ", 7 fascicules, Édités par Horizons de France, Paris, 1929
 Le Grand Désert et la Route du Niger, Publications du centenaire de l'Algérie, Fascicule N°1, Édité par Horizons de France, Paris, 1929.
